--- a/NformTester/NformTester/keywordscripts/TST780_TrendGraphRefreshFunctionality.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST780_TrendGraphRefreshFunctionality.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="882">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3723,249 +3723,243 @@
   </si>
   <si>
     <t>SendCommandToSimulator</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Steps</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;RT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NformLogin</t>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. Rows</t>
+  </si>
+  <si>
+    <t>Exception / Error</t>
+  </si>
+  <si>
+    <t>True / False</t>
+  </si>
+  <si>
+    <t>Ranorex Version</t>
+  </si>
+  <si>
+    <t>Nform Viewer</t>
+  </si>
+  <si>
+    <t>Nform Server</t>
+  </si>
+  <si>
+    <t>Database Type</t>
+  </si>
+  <si>
+    <t>Database Version</t>
+  </si>
+  <si>
+    <t>Managed device limit</t>
+  </si>
+  <si>
+    <t>Advanced Communications</t>
+  </si>
+  <si>
+    <t>Advanced Notification</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Login.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Administrator"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"localhost"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>;All the data points will get logged in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Go to the "Trends". Select one or more Parameter data points name. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Clear operation.</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>Sashimi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add two devices.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is verify the graph should be automatically refreshed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Prerequisites: N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select first device from Navigate tab and go to Trend tab. Wait for several minutes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select another device and again come back to the first device.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that: Trend graph should be automatically refreshed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Script Info</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Script Data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Steps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;RT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Component</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NformLogin</t>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>No. Rows</t>
-  </si>
-  <si>
-    <t>Exception / Error</t>
-  </si>
-  <si>
-    <t>True / False</t>
-  </si>
-  <si>
-    <t>Ranorex Version</t>
-  </si>
-  <si>
-    <t>Nform Viewer</t>
-  </si>
-  <si>
-    <t>Nform Server</t>
-  </si>
-  <si>
-    <t>Database Type</t>
-  </si>
-  <si>
-    <t>Database Version</t>
-  </si>
-  <si>
-    <t>Managed device limit</t>
-  </si>
-  <si>
-    <t>Advanced Communications</t>
-  </si>
-  <si>
-    <t>Advanced Notification</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Login.</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Administrator"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>;All the data points will get logged in the database.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Go to the "Trends". Select one or more Parameter data points name. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Clear operation.</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>Sashimi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add two devices.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is verify the graph should be automatically refreshed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Prerequisites: N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.146.88.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_88.5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_88.5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>" "</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select first device from Navigate tab and go to Trend tab. Wait for several minutes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select another device and again come back to the first device.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that: Trend graph should be automatically refreshed.</t>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>$SNMPdevice_1$</t>
+  </si>
+  <si>
+    <t>$GXT_1_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4502,7 +4496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4518,60 +4514,60 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>846</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4586,32 +4582,32 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>851</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>852</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4620,16 +4616,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4650,7 +4646,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B5" s="8">
         <v>41143</v>
@@ -4659,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4674,7 +4670,7 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B6" s="8">
         <v>41144</v>
@@ -4683,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4698,7 +4694,7 @@
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B7" s="3">
         <v>64</v>
@@ -4707,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
@@ -4722,16 +4718,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>856</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4741,37 +4737,37 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>861</v>
       </c>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>831</v>
-      </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>632</v>
@@ -4781,22 +4777,22 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>861</v>
       </c>
       <c r="N9" s="14"/>
     </row>
@@ -4807,10 +4803,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -4826,14 +4822,14 @@
     </row>
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
@@ -4848,14 +4844,14 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>19</v>
@@ -4876,14 +4872,14 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>19</v>
@@ -4904,14 +4900,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>632</v>
@@ -4923,7 +4919,7 @@
         <v>56</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -4934,14 +4930,14 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>632</v>
@@ -4962,14 +4958,14 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>571</v>
@@ -4991,13 +4987,13 @@
     <row r="17" spans="1:14">
       <c r="A17" s="2"/>
       <c r="B17" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>630</v>
@@ -5019,13 +5015,13 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>630</v>
@@ -5046,16 +5042,16 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>571</v>
@@ -5076,14 +5072,14 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>632</v>
@@ -5104,14 +5100,14 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>811</v>
@@ -5133,7 +5129,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>19</v>
@@ -5157,7 +5153,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>19</v>
@@ -5181,7 +5177,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>632</v>
@@ -5193,7 +5189,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5207,7 +5203,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>632</v>
@@ -5231,7 +5227,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>571</v>
@@ -5255,7 +5251,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>630</v>
@@ -5279,7 +5275,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>630</v>
@@ -5303,7 +5299,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>571</v>
@@ -5327,7 +5323,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>632</v>
@@ -5351,7 +5347,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>811</v>
@@ -5373,7 +5369,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -5391,7 +5387,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>19</v>
@@ -5415,7 +5411,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>19</v>
@@ -5430,7 +5426,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5443,7 +5439,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>19</v>
@@ -5467,7 +5463,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>19</v>
@@ -5491,7 +5487,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>630</v>
@@ -5519,7 +5515,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>630</v>
@@ -5547,7 +5543,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>630</v>
@@ -5559,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="4"/>
@@ -5573,7 +5569,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>630</v>
@@ -5585,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="4"/>
@@ -5599,7 +5595,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>630</v>
@@ -5623,7 +5619,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -5641,7 +5637,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>19</v>
@@ -5665,7 +5661,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>19</v>
@@ -5680,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -5693,7 +5689,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>19</v>
@@ -5717,10 +5713,10 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F46" s="4">
         <v>20</v>
@@ -5739,7 +5735,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="4"/>
@@ -5757,7 +5753,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>19</v>
@@ -5781,7 +5777,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>19</v>
@@ -5796,7 +5792,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5809,7 +5805,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>19</v>
@@ -5833,10 +5829,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F51" s="4">
         <v>20</v>
@@ -5855,7 +5851,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>19</v>
@@ -5879,7 +5875,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>19</v>
@@ -5894,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -5907,7 +5903,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>19</v>
@@ -5931,10 +5927,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F55" s="4">
         <v>20</v>
@@ -5953,7 +5949,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -5971,10 +5967,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5993,7 +5989,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="4"/>
@@ -6011,7 +6007,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>811</v>
@@ -6033,7 +6029,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>19</v>
@@ -6057,7 +6053,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>19</v>
@@ -6081,10 +6077,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>633</v>
@@ -6093,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6107,10 +6103,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>215</v>
@@ -6131,7 +6127,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>640</v>
@@ -6155,10 +6151,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST780_TrendGraphRefreshFunctionality.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST780_TrendGraphRefreshFunctionality.xlsx
@@ -3835,9 +3835,6 @@
     <t>;Login.</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3950,17 +3947,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_1$</t>
-  </si>
-  <si>
-    <t>$GXT_1_NAME$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4496,25 +4498,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>815</v>
@@ -4585,13 +4587,13 @@
         <v>823</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4601,13 +4603,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>850</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>851</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4619,13 +4621,13 @@
         <v>825</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4655,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4673,13 +4675,13 @@
         <v>827</v>
       </c>
       <c r="B6" s="8">
-        <v>41144</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4703,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
@@ -4718,16 +4720,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4737,37 +4737,35 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>878</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>858</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>859</v>
       </c>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>830</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>632</v>
@@ -4777,36 +4775,40 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>881</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>858</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>859</v>
       </c>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>830</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>871</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -4821,15 +4823,13 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="15">
-      <c r="A11" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4872,7 +4872,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4900,7 +4900,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4919,7 +4919,7 @@
         <v>56</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -4958,7 +4958,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
@@ -4985,10 +4985,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>837</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5015,7 +5015,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5041,11 +5041,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>839</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5072,9 +5070,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>839</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>830</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5125,6 +5125,10 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5369,7 +5373,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -5426,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5555,7 +5559,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="4"/>
@@ -5581,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="4"/>
@@ -5619,7 +5623,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -5676,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -5713,10 +5717,10 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>870</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>871</v>
       </c>
       <c r="F46" s="4">
         <v>20</v>
@@ -5735,7 +5739,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="4"/>
@@ -5829,10 +5833,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>870</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>871</v>
       </c>
       <c r="F51" s="4">
         <v>20</v>
@@ -5890,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -5927,10 +5931,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>870</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>871</v>
       </c>
       <c r="F55" s="4">
         <v>20</v>
@@ -5949,7 +5953,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -5967,10 +5971,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>870</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>871</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5989,7 +5993,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="4"/>
@@ -6077,10 +6081,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>863</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>864</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>633</v>
@@ -6089,7 +6093,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6103,10 +6107,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>863</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>864</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>215</v>
@@ -6127,7 +6131,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>640</v>
@@ -6151,10 +6155,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>863</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>864</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>100</v>
